--- a/medicine/Psychotrope/Burger_fils/Burger_fils.xlsx
+++ b/medicine/Psychotrope/Burger_fils/Burger_fils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Burger Fils, appelée en allemand Burger Söhne AG, est une entreprise suisse fabricant des cigares.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1864 par Rudolf Burger[2], elle rachète en 1988 l'entreprise allemande Dannemann de Lübbecke et devient ainsi le troisième producteur mondial de cigares[3]. 
-Elle continue sa croissance dans les années suivantes : en 1999 avec l'entreprise tessinoise Fabbrica Tabacchi Brissago SA, puis en 2010 avec la reprise de Kägi Söhne AG à Lichtensteig[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1864 par Rudolf Burger, elle rachète en 1988 l'entreprise allemande Dannemann de Lübbecke et devient ainsi le troisième producteur mondial de cigares. 
+Elle continue sa croissance dans les années suivantes : en 1999 avec l'entreprise tessinoise Fabbrica Tabacchi Brissago SA, puis en 2010 avec la reprise de Kägi Söhne AG à Lichtensteig.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les marques possédées par Burger fils, on peut citer Rössli, Dannemann, Al Capone, Weekend, Meccarillos, Ormond, Fivaz, Churchill, Huifkar, Blauband, Brissago, Bündner, Monopol, Pedroni, Nazionale, Toscanelli et Garibaldi[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les marques possédées par Burger fils, on peut citer Rössli, Dannemann, Al Capone, Weekend, Meccarillos, Ormond, Fivaz, Churchill, Huifkar, Blauband, Brissago, Bündner, Monopol, Pedroni, Nazionale, Toscanelli et Garibaldi.
 </t>
         </is>
       </c>
